--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>HIMS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +744,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +963,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1005,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,28 +1051,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1135,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1435,63 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1618,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1500</v>
       </c>
       <c r="G41" s="3">
         <v>1500</v>
       </c>
       <c r="H41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1712,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1744,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1667,48 +1765,54 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1716,28 +1820,31 @@
         <v>204500</v>
       </c>
       <c r="E47" s="3">
-        <v>204700</v>
+        <v>204500</v>
       </c>
       <c r="F47" s="3">
         <v>204700</v>
       </c>
       <c r="G47" s="3">
+        <v>204700</v>
+      </c>
+      <c r="H47" s="3">
         <v>203100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>202100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1872,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1872,17 +1991,20 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E54" s="3">
         <v>205800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>206200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>206300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>204800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>204100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1977,25 +2107,28 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2011,78 +2144,87 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1100</v>
       </c>
       <c r="F59" s="3">
         <v>1100</v>
       </c>
       <c r="G59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1000</v>
       </c>
       <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2130,8 +2275,8 @@
       <c r="H62" s="3">
         <v>7200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>7200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>8400</v>
       </c>
       <c r="F66" s="3">
         <v>8400</v>
       </c>
       <c r="G66" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="H66" s="3">
         <v>8200</v>
       </c>
       <c r="I66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
         <v>100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>400</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E76" s="3">
         <v>195600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>197800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>197900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>196600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>195900</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3195,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,13 +3337,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3109,12 +3354,12 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3124,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>HIMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -747,13 +751,16 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>12100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -779,13 +786,16 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>40200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,31 +906,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>5300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,45 +1075,49 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-50900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,63 +1178,69 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,63 +1705,67 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1500</v>
       </c>
       <c r="H41" s="3">
         <v>1500</v>
       </c>
       <c r="I41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>235100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1683,31 +1773,34 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1715,31 +1808,34 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1747,13 +1843,16 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1768,83 +1867,92 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>204500</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>204500</v>
       </c>
       <c r="F47" s="3">
-        <v>204700</v>
+        <v>204500</v>
       </c>
       <c r="G47" s="3">
         <v>204700</v>
       </c>
       <c r="H47" s="3">
+        <v>204700</v>
+      </c>
+      <c r="I47" s="3">
         <v>203100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>202100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,13 +2088,16 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>5700</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1994,17 +2114,20 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E54" s="3">
         <v>205600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>205800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>206200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>206300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>204800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>204100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,13 +2225,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2110,25 +2241,28 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2147,84 +2281,93 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1100</v>
       </c>
       <c r="G59" s="3">
         <v>1100</v>
       </c>
       <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
       </c>
       <c r="H60" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,13 +2398,16 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7200</v>
+        <v>33800</v>
       </c>
       <c r="E62" s="3">
         <v>7200</v>
@@ -2278,8 +2424,8 @@
       <c r="I62" s="3">
         <v>7200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>7200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E66" s="3">
         <v>12100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>8400</v>
       </c>
       <c r="G66" s="3">
         <v>8400</v>
       </c>
       <c r="H66" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="I66" s="3">
         <v>8200</v>
       </c>
       <c r="J66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-222700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>400</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292500</v>
+      </c>
+      <c r="E76" s="3">
         <v>193500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>195600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>197800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>197900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>196600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>195900</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,31 +3030,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,31 +3290,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,31 +3393,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-163300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,16 +3583,19 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>239900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3357,12 +3603,12 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,31 +3618,34 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>HIMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F8" s="3">
         <v>52300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,29 +753,35 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F9" s="3">
         <v>12100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,20 +803,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F10" s="3">
         <v>40200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,19 +943,25 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>5400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -935,17 +975,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,55 +1043,63 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>78100</v>
+      </c>
+      <c r="F17" s="3">
         <v>100900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-48600</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,17 +1112,23 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,20 +1142,22 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,29 +1170,35 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-50900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1220,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,55 +1261,67 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-51300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1242,17 +1334,23 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-51400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-51400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,20 +1630,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1522,52 +1662,64 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-51400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-51400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,55 +1878,63 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F41" s="3">
         <v>88200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>210200</v>
+      </c>
+      <c r="F42" s="3">
         <v>235100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1767,29 +1947,35 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,29 +1988,35 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1837,28 +2029,34 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F45" s="3">
         <v>11500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -1870,89 +2068,107 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>336300</v>
+      </c>
+      <c r="F46" s="3">
         <v>340200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>204500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>204500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>204700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>204700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>203100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>202100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,31 +2202,37 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>137800</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2021,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,20 +2325,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2117,17 +2357,23 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2407,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>420100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>347700</v>
+      </c>
+      <c r="F54" s="3">
         <v>345900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>205600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>205800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>206200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>206300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>204800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>204100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,148 +2486,174 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F57" s="3">
         <v>13200</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F60" s="3">
         <v>19700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,19 +2687,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F62" s="3">
         <v>33800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>7200</v>
       </c>
       <c r="G62" s="3">
         <v>7200</v>
@@ -2427,17 +2719,23 @@
       <c r="J62" s="3">
         <v>7200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>7200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2851,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F66" s="3">
         <v>53400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-247800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-231800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-222700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3237,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>293100</v>
+      </c>
+      <c r="F76" s="3">
         <v>292500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>193500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>195600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>197800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>197900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>196600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>195900</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-51400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,20 +3427,22 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,17 +3455,23 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,19 +3731,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3317,17 +3759,23 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,28 +3850,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-163300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3425,14 +3885,20 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,54 +4072,66 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F100" s="3">
         <v>239900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3647,48 +4145,60 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F102" s="3">
         <v>60700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>HIMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E8" s="3">
         <v>74200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,8 +762,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -768,23 +771,26 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E9" s="3">
         <v>19300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,23 +815,26 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E10" s="3">
         <v>54900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,23 +965,26 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4300</v>
       </c>
       <c r="F14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G14" s="3">
         <v>5400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -981,8 +1000,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,64 +1070,68 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E17" s="3">
         <v>101800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-48600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,17 +1147,20 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,23 +1176,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E20" s="3">
         <v>8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,32 +1209,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,64 +1306,70 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1340,8 +1385,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-51400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,23 +1702,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1668,58 +1737,64 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,64 +1965,68 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E41" s="3">
         <v>64800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1500</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
       </c>
       <c r="L41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E42" s="3">
         <v>187700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>210200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>235100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1953,8 +2042,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,23 +2051,26 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2086,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2003,23 +2095,26 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E44" s="3">
         <v>10900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2035,8 +2130,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2044,22 +2139,25 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>9600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2074,60 +2172,66 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E46" s="3">
         <v>274200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>336300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>340200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2140,58 +2244,61 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>204500</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>204500</v>
       </c>
       <c r="I47" s="3">
-        <v>204700</v>
+        <v>204500</v>
       </c>
       <c r="J47" s="3">
         <v>204700</v>
       </c>
       <c r="K47" s="3">
+        <v>204700</v>
+      </c>
+      <c r="L47" s="3">
         <v>203100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>202100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2208,20 +2315,23 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E49" s="3">
         <v>137800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2234,8 +2344,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,23 +2447,26 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>8000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,17 +2482,20 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>420600</v>
+      </c>
+      <c r="E54" s="3">
         <v>420100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>347700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>345900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>205600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>205800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>206200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>206300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>204800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>204100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,23 +2617,24 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E57" s="3">
         <v>16100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13200</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2512,25 +2642,28 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2555,105 +2688,114 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E59" s="3">
         <v>36400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>1100</v>
       </c>
       <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E60" s="3">
         <v>52500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
       </c>
       <c r="K60" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,22 +2835,25 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E62" s="3">
         <v>12400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7200</v>
       </c>
       <c r="H62" s="3">
         <v>7200</v>
@@ -2725,8 +2870,8 @@
       <c r="L62" s="3">
         <v>7200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>7200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E66" s="3">
         <v>64900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>8400</v>
       </c>
       <c r="J66" s="3">
         <v>8400</v>
       </c>
       <c r="K66" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="L66" s="3">
         <v>8200</v>
       </c>
       <c r="M66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-279000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-247800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-231800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-222700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>334600</v>
+      </c>
+      <c r="E76" s="3">
         <v>355200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>293100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>292500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>193500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>195600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>197800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>197900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>196600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>195900</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,23 +3626,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,8 +3659,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,22 +3952,23 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3765,8 +3985,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,25 +4082,28 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-163300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3882,14 +4111,14 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,25 +4320,28 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>239900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -4104,12 +4349,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4119,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4133,8 +4381,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4151,8 +4399,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4160,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>HIMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,102 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>101300</v>
+      </c>
+      <c r="F8" s="3">
         <v>84700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>74200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>60700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>52300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,38 +773,44 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F9" s="3">
         <v>22600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>19300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>13400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,29 +832,35 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>74700</v>
+      </c>
+      <c r="F10" s="3">
         <v>62100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>54900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>47300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>40200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,29 +1002,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,17 +1043,23 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,73 +1123,81 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>118200</v>
+      </c>
+      <c r="F17" s="3">
         <v>106300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>101800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>78100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-27600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-48600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,17 +1210,23 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,29 +1243,31 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>8300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,38 +1280,44 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-29600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-17600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-50900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,73 +1389,85 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-31200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-19100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-51300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,17 +1480,23 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-31200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-51400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-31200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-51400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,29 +1839,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>9700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-8300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,61 +1880,73 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-31200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-51400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-31200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-51400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,73 +2138,81 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F41" s="3">
         <v>71800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>64800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>107100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>88200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>154800</v>
+      </c>
+      <c r="F42" s="3">
         <v>175500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>187700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>210200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>235100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2045,38 +2225,44 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,38 +2275,44 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F44" s="3">
         <v>13600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,37 +2325,43 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2175,63 +2373,75 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>231900</v>
+      </c>
+      <c r="F46" s="3">
         <v>269900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>274200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>336300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>340200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2247,47 +2457,53 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>204500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>204500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>204700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>204700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>203100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>202100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2300,11 +2516,11 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2318,26 +2534,32 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>135700</v>
+      </c>
+      <c r="F49" s="3">
         <v>136800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>137800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2347,11 +2569,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2362,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,29 +2684,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,17 +2725,23 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>382000</v>
+      </c>
+      <c r="F54" s="3">
         <v>420600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>420100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>347700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>345900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>205600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>205800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>206200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>206300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>204800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>204100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F57" s="3">
         <v>19600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>16100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>13200</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2691,111 +2959,129 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F59" s="3">
         <v>59600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>36400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>48500</v>
+      </c>
+      <c r="F60" s="3">
         <v>79200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>52500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>27300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>19700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,28 +3124,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F62" s="3">
         <v>6700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>12400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>27300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>33800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>7200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7200</v>
       </c>
       <c r="J62" s="3">
         <v>7200</v>
@@ -2873,17 +3165,23 @@
       <c r="M62" s="3">
         <v>7200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>7200</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F66" s="3">
         <v>86000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>64900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>54600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>53400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-314900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-295200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-279000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-247800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-231800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-222700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>400</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>327700</v>
+      </c>
+      <c r="F76" s="3">
         <v>334600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>355200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>293100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>292500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>193500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>195600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>197800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>197900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>196600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>195900</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-31200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-51400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,29 +4023,31 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,17 +4060,23 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,29 +4393,31 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3988,17 +4430,23 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,37 +4539,43 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F94" s="3">
         <v>10200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-25900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>22700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-163300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4123,14 +4583,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>239900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4384,11 +4882,11 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4402,57 +4900,69 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-42400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>19000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>60700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>HIMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>144800</v>
+      </c>
+      <c r="F8" s="3">
         <v>113600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>101300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>84700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>74200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>60700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>52300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,44 +786,50 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F9" s="3">
         <v>26400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>26600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,35 +851,41 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>114400</v>
+      </c>
+      <c r="F10" s="3">
         <v>87200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>74700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>62100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>54900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>47300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>40200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,8 +907,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +933,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +985,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,35 +1041,41 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>900</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1049,17 +1088,23 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1153,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,85 +1176,93 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>164800</v>
+      </c>
+      <c r="F17" s="3">
         <v>133800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>118200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>106300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>101800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>78100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-16900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-21600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-48600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,17 +1275,23 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,35 +1310,37 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-9700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>8500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1286,44 +1353,50 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-29600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-17600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-50900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,8 +1418,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,85 +1474,97 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-31200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-19100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-51300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,17 +1577,23 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1642,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-31200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-51400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-19700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-31200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-15900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-51400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1810,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,35 +1978,41 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>9700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-8500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1886,67 +2025,79 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-19700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-31200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-15900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-51400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-19700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-31200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-15900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-51400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,85 +2311,93 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F41" s="3">
         <v>55000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>48300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>71800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>64800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>107100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>88200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>140400</v>
+      </c>
+      <c r="F42" s="3">
         <v>139900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>154800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>175500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>187700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>210200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>235100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,44 +2410,50 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F43" s="3">
         <v>4900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,44 +2466,50 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F44" s="3">
         <v>19700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>12100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>10900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>6600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,43 +2522,49 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>9600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2379,137 +2576,155 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>233500</v>
+      </c>
+      <c r="F46" s="3">
         <v>230500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>231900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>269900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>274200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>336300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>340200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>204500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>204500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>204700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>204700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>203100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>202100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2522,11 +2737,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2540,32 +2755,38 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>133000</v>
+      </c>
+      <c r="F49" s="3">
         <v>134700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>135700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>136800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>137800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,11 +2796,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2590,8 +2811,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,35 +2923,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F52" s="3">
         <v>10300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>9600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,17 +2970,23 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3035,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>366300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>382800</v>
+      </c>
+      <c r="F54" s="3">
         <v>380000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>382000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>420600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>420100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>347700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>345900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>205600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>205800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>206200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>206300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>204800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>204100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3139,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F57" s="3">
         <v>27100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>23900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>19600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>16100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>15600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>13200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2965,123 +3232,141 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F59" s="3">
         <v>28500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>59600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>36400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>66800</v>
+      </c>
+      <c r="F60" s="3">
         <v>55600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>48500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>79200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>52500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>27300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>19700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,34 +3415,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F62" s="3">
         <v>5300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>12400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>27300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>33800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>7200</v>
       </c>
       <c r="L62" s="3">
         <v>7200</v>
@@ -3171,17 +3462,23 @@
       <c r="O62" s="3">
         <v>7200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>7200</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3639,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F66" s="3">
         <v>60900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>54300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>86000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>64900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>54600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>53400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3941,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-344600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-333700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-314900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-295200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-279000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-247800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-231800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-222700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>400</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4165,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>311700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>310900</v>
+      </c>
+      <c r="F76" s="3">
         <v>319100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>327700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>334600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>355200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>293100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>292500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>193500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>195600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>197800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>197900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>196600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>195900</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-19700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-31200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-15900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-51400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,35 +4420,37 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4066,17 +4463,23 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4752,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,35 +4834,37 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4436,17 +4877,23 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,43 +4998,49 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F94" s="3">
         <v>12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>18500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>10200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-25900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>22700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-163300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4589,14 +5048,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5300,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-22500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>239900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4888,11 +5385,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4906,63 +5403,75 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F102" s="3">
         <v>6700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-23500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-42400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>60700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -4842,25 +4842,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-1500</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-1600</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HIMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>HIMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,129 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F8" s="3">
         <v>167200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>144800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>113600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>101300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>84700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>74200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>60700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>52300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -792,50 +800,56 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F9" s="3">
         <v>34900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>30400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>26400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>26600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>22600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>19300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,41 +871,47 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>153500</v>
+      </c>
+      <c r="F10" s="3">
         <v>132300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>114400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>87200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>74700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>62100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>54900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>40200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,41 +1081,47 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,17 +1134,23 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,97 +1230,105 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>217100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F17" s="3">
         <v>178800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>164800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>133800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>118200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>106300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>101800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>78100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-20000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-20200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-21600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-27600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-17400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-48600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,17 +1341,23 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,41 +1378,43 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-9700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>8500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1359,50 +1427,56 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-17000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-17800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-29600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-17600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-50900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,97 +1560,109 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-18900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-19700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-31200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-19100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-51300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,17 +1675,23 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-19700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-31200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-51400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-16300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-31200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-51400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,41 +2118,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>9700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-8500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,73 +2171,85 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-16300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-31200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-51400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-16300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-31200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-51400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,97 +2485,105 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F41" s="3">
         <v>46800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>58000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>55000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>48300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>71800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>64800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>107100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>88200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>135600</v>
+      </c>
+      <c r="F42" s="3">
         <v>132900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>140400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>139900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>154800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>175500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>187700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>210200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>235100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,50 +2596,56 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,50 +2658,56 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F44" s="3">
         <v>21600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>22300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>13600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>10900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,49 +2720,55 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2582,75 +2780,87 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>225500</v>
+      </c>
+      <c r="F46" s="3">
         <v>216600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>233500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>230500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>231900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>269900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>274200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>336300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>340200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2675,62 +2885,68 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>204500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>204500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>204700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>204700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>203100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>202100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2743,11 +2959,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2761,38 +2977,44 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>131800</v>
+      </c>
+      <c r="F49" s="3">
         <v>132700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>133000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>134700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>135700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>136800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>137800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2802,11 +3024,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2817,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,41 +3163,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F52" s="3">
         <v>12100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>11100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>10300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,17 +3216,23 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>389900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>376300</v>
+      </c>
+      <c r="F54" s="3">
         <v>366300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>382800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>380000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>382000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>420600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>420100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>347700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>345900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>205600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>205800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>206200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>206300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>204800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>204100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,64 +3401,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>33000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>27100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>23900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>19600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>16100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13200</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3238,135 +3506,153 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F59" s="3">
         <v>15600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>33800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>28500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>24600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>59600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>36400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F60" s="3">
         <v>47900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>66800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>55600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>48500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>79200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>52500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>27300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>19700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,40 +3707,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F62" s="3">
         <v>6700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>12400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>27300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>33800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>7200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>7200</v>
       </c>
       <c r="N62" s="3">
         <v>7200</v>
@@ -3468,17 +3760,23 @@
       <c r="Q62" s="3">
         <v>7200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>7200</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F66" s="3">
         <v>54600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>71900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>60900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>54300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>86000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>64900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>54600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>53400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-361900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-354700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-344600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-333700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-314900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-295200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-279000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-247800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-231800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-222700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>400</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>320100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>312700</v>
+      </c>
+      <c r="F76" s="3">
         <v>311700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>310900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>319100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>327700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>334600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>355200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>293100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>292500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>193500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>195600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>197800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>197900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>196600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>195900</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-16300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-31200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-51400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,41 +4818,43 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4469,17 +4867,23 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-19400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-15900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,41 +5276,43 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4883,17 +5325,23 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,49 +5458,55 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F94" s="3">
         <v>6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>12800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>18500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>10200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-25900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>22700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-163300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5054,14 +5514,20 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-22500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>239900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5391,11 +5889,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -5409,69 +5907,81 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-42400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>60700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
